--- a/AksiMap.xlsx
+++ b/AksiMap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\AksiDb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>products</t>
   </si>
@@ -407,7 +407,7 @@
   <dimension ref="B3:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,16 +460,25 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -523,15 +532,24 @@
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
